--- a/main/ig/ValueSet-competence-vs.xlsx
+++ b/main/ig/ValueSet-competence-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T08:07:44+00:00</t>
+    <t>2025-11-03T16:45:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-competence-vs.xlsx
+++ b/main/ig/ValueSet-competence-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T16:45:30+00:00</t>
+    <t>2025-12-03T08:21:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-competence-vs.xlsx
+++ b/main/ig/ValueSet-competence-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T08:21:22+00:00</t>
+    <t>2025-12-03T08:23:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-competence-vs.xlsx
+++ b/main/ig/ValueSet-competence-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T08:23:01+00:00</t>
+    <t>2025-12-03T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
